--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ureckon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub Repos\certificate-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E47749-BB93-45B0-B61A-9E64BD8C9ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29420F6C-A50C-4EEE-81B0-BBD196705F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -39,21 +39,12 @@
     <t>Indranil Saha</t>
   </si>
   <si>
-    <t>Sk Sohail</t>
-  </si>
-  <si>
     <t>Ankita Karmakar</t>
   </si>
   <si>
     <t>Subhranil Samanta</t>
   </si>
   <si>
-    <t>Sankhadeep Bose</t>
-  </si>
-  <si>
-    <t>Sayan Roy</t>
-  </si>
-  <si>
     <t>Deblina Saha</t>
   </si>
   <si>
@@ -72,17 +63,41 @@
     <t>Direcion</t>
   </si>
   <si>
-    <t>18th-19th February</t>
+    <t>Debmallya Panja</t>
+  </si>
+  <si>
+    <t>Sayan Ray Gupta</t>
+  </si>
+  <si>
+    <t>Sankhadeep Bhattacharya</t>
+  </si>
+  <si>
+    <t>Rittika Dutta</t>
+  </si>
+  <si>
+    <t>Irfan Wahid</t>
+  </si>
+  <si>
+    <t>Robo Dangal</t>
+  </si>
+  <si>
+    <t>18th - 19th February</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -416,79 +431,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -496,13 +511,36 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>